--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -418,12 +418,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>wait(3);
 SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
@@ -432,7 +426,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -892,18 +885,18 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J2" sqref="J2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -959,15 +952,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="180.75" thickBot="1">
@@ -994,9 +985,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="225.75" thickBot="1">
@@ -1023,9 +1012,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="180.75" thickBot="1">
@@ -1052,9 +1039,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="180.75" thickBot="1">
@@ -1079,9 +1064,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="180.75" thickBot="1">
@@ -1108,9 +1091,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1">
@@ -1137,9 +1118,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="180.75" thickBot="1">
@@ -1166,9 +1145,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="180.75" thickBot="1">
@@ -1195,9 +1172,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="180.75" thickBot="1">
@@ -1224,9 +1199,7 @@
         <v>31</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="180.75" thickBot="1">
@@ -1253,9 +1226,7 @@
         <v>32</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
   </sheetData>
@@ -1274,12 +1245,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
@@ -419,7 +419,15 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -885,7 +893,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,7 +902,7 @@
     <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -932,7 +940,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="39" thickBot="1">
+    <row r="2" spans="1:11" ht="217.5" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
@@ -421,11 +421,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -940,7 +936,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="217.5" thickBot="1">
+    <row r="2" spans="1:11" ht="153.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_BatteryIndicator_JS.xlsx
@@ -101,87 +101,11 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0251
+validate_Text_Exists=VT200-0255
 };
 validate4
 {
-validate_Screenshot=VT200_0251
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0254
-};
-validate4
-{
-validate_Screenshot=VT200_0254_before
-};
-validate5
-{
-validate_Screenshot=VT200_0254_after
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0255
-};
-validate4
-{
 validate_Screenshot=VT200_0255
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0256
-};
-validate4
-{
-validate_Screenshot=VT200_0256
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Battery JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0257
-};
-validate4
-{
-validate_Screenshot=VT200_0257
 };</t>
   </si>
   <si>
@@ -293,22 +217,6 @@
 validate1;
 link_Click(battery_test_link);
 validate2;
-SelectTestToRun(VT200_0254_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0254_before);
-validate4;
-wait(10);
-TakeScreenshot(VT200_0254_after);
-validate5;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(battery_test_link);
-validate2;
 SelectTestToRun(VT200_0255_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -316,33 +224,6 @@
 wait(3);
 TakeScreenshot(VT200_0255);
 validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0256_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0256);
-validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(battery_test_link);
-validate2;
-SelectTestToRun(VT200_0257_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-TakeScreenshot(VT200_0257);
-validate4;
-</t>
   </si>
   <si>
     <t xml:space="preserve">wait(3);
@@ -424,6 +305,123 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0251
+};
+validate4
+{
+validate_Screenshot=VT200_0251
+validate_Iconposition=batteryview_xpath,left,20
+validate_Iconposition=batteryview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0254
+};
+validate4
+{
+validate_isIconDisplayed=batteryview_xpath,true
+};
+validate5
+{
+validate_isIconDisplayed=batteryview_xpath,false
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0254_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate4;
+wait(10);
+validate5;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0256
+};
+validate4
+{
+validate_Iconposition=batteryview_xpath,left,40
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0256_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate4;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Battery JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0257
+};
+validate4
+{
+validate_Iconposition=batteryview_xpath,top,40
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(battery_test_link);
+validate2;
+SelectTestToRun(VT200_0257_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+validate4;
+</t>
   </si>
 </sst>
 </file>
@@ -889,7 +887,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -965,7 +963,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="180.75" thickBot="1">
+    <row r="3" spans="1:11" ht="203.25" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -983,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1010,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1037,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1062,10 +1060,10 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1089,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1116,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1143,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1170,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1197,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1224,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
